--- a/biology/Zoologie/Guizygiella_salta/Guizygiella_salta.xlsx
+++ b/biology/Zoologie/Guizygiella_salta/Guizygiella_salta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guizygiella salta est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guizygiella salta est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Chine[1]. Elle se rencontre au Hunan, au Guangxi, au Yunnan et au Guizhou[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Chine. Elle se rencontre au Hunan, au Guangxi, au Yunnan et au Guizhou.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 2,87 à 3,66 mm et les femelles de 4,00 à 6,20 mm[3],[2].
-Les mâles mesurent de 3,10 à 3,50 mm et les femelles de 3,40 à 4,10 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 2,87 à 3,66 mm et les femelles de 4,00 à 6,20 mm,.
+Les mâles mesurent de 3,10 à 3,50 mm et les femelles de 3,40 à 4,10 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Zygiella salta par Yin et Gong en 1996. Elle est placée dans le genre Guizygiella par Zhu, Song et Zhang en 2003[4].
-Guizygiella quadrata[5] et Zygiella baojingensis[6] ont été placées en synonymie par Zhu, Song et Zhang en 2003[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Zygiella salta par Yin et Gong en 1996. Elle est placée dans le genre Guizygiella par Zhu, Song et Zhang en 2003.
+Guizygiella quadrata et Zygiella baojingensis ont été placées en synonymie par Zhu, Song et Zhang en 2003.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Yin &amp; Gong, 1996 : « Four orb-weaver spiders of the family Araneidae from Hunan Province of China (Arachnida: Araneae). » Acta Scientiarum Naturalium Universitatis Normalis Hunanensis, vol. 19, p. 72-76.</t>
         </is>
